--- a/scripts/Data/00_rate_table.xlsx
+++ b/scripts/Data/00_rate_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/ETNP 2018/Data/isotopomer-soup/scripts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEAC61-BA44-2347-ACD6-8FF27F7A83E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D5E00-5023-8241-BE3F-B3B3A62BB7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38320" yWindow="-3620" windowWidth="38320" windowHeight="21620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -431,12 +431,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,6 +452,1016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BA$44:$BA$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.15773312286860147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52098805266948978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.23077991891115016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.248378941566623E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20891288916975601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5869239117802136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.33624927827331952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10832119092089661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.29436830914850071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.0897798644619106E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56391067209945978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38055852789114597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.5990402655732703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.47395851749828138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.12308861431224589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28709928020935371</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.292873458005594E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.4397772142535452</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3237063027790679</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.17690204078532434</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.19819806082500088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BB$44:$BB$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.37845674147548453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51519845935984787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30271129961714921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48696498265733928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39659472868451973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41749029248198177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55445625615700489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36210409444818531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40620524965342608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57542814248969254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9057493121739371E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73085641523701539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50471693785766825</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88247214435392696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40990194202010322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4021106147339798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A22-0146-AAD3-E6B105FBEDA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1084337232"/>
+        <c:axId val="1084345440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1084337232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084345440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1084345440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084337232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D3BC35-2745-8EE0-9B30-251CFD844C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,10 +1788,10 @@
   <dimension ref="A1:BB64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AM21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AQ16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE46" sqref="BE46:BF46"/>
+      <selection pane="bottomRight" activeCell="BI52" sqref="BI52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1933,6 +2943,9 @@
         <f t="shared" si="1"/>
         <v>6.6672132958776192E-6</v>
       </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2093,6 +3106,9 @@
         <f t="shared" si="1"/>
         <v>5.2092605714054718E-4</v>
       </c>
+      <c r="BB8">
+        <v>0.41749029248198177</v>
+      </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2253,6 +3269,9 @@
         <f t="shared" si="1"/>
         <v>6.5842256169319213E-3</v>
       </c>
+      <c r="BB9">
+        <v>0.55445625615700489</v>
+      </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2413,6 +3432,9 @@
         <f t="shared" si="1"/>
         <v>-1.0800181278625837E-4</v>
       </c>
+      <c r="BB10">
+        <v>0.36210409444818531</v>
+      </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2573,6 +3595,9 @@
         <f t="shared" si="1"/>
         <v>3.365795956775065E-5</v>
       </c>
+      <c r="BB11">
+        <v>0.40620524965342608</v>
+      </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2733,6 +3758,9 @@
         <f t="shared" si="1"/>
         <v>2.1290604386950407E-5</v>
       </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2893,6 +3921,9 @@
         <f t="shared" si="1"/>
         <v>-8.5223408282111834E-4</v>
       </c>
+      <c r="BB13">
+        <v>0.57542814248969254</v>
+      </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3053,6 +4084,9 @@
         <f t="shared" si="1"/>
         <v>2.0926801817004181E-3</v>
       </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3213,6 +4247,9 @@
         <f t="shared" si="1"/>
         <v>-8.5419612696088082E-5</v>
       </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3373,8 +4410,11 @@
         <f t="shared" si="1"/>
         <v>1.9168331896067539E-4</v>
       </c>
+      <c r="BB16">
+        <v>5.9057493121739371E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3533,8 +4573,11 @@
         <f t="shared" si="1"/>
         <v>-1.237984766394945E-3</v>
       </c>
+      <c r="BB17">
+        <v>0.73085641523701539</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3693,8 +4736,11 @@
         <f t="shared" si="1"/>
         <v>1.178393411704619E-4</v>
       </c>
+      <c r="BB18">
+        <v>0.50471699999999997</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3853,8 +4899,11 @@
         <f t="shared" si="1"/>
         <v>-5.0715141806799771E-4</v>
       </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -4014,7 +5063,7 @@
         <v>-2.984757780549116E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4174,7 +5223,7 @@
         <v>-9.5208016726951693E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4334,7 +5383,7 @@
         <v>-3.4354376939112197E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4494,7 +5543,7 @@
         <v>-1.5503219792187273E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4654,7 +5703,7 @@
         <v>1.4638489465645943E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4814,7 +5863,7 @@
         <v>-3.8843474315999882E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4974,7 +6023,7 @@
         <v>-1.833220240314605E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5134,7 +6183,7 @@
         <v>-1.8722543073400597E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5294,7 +6343,7 @@
         <v>8.5284850090598316E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5454,7 +6503,7 @@
         <v>6.1530943292648077E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5614,7 +6663,7 @@
         <v>1.6083312186241649E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5774,7 +6823,7 @@
         <v>-1.245779927792949E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7850,8 +8899,8 @@
         <v>7.5315511394367316E-5</v>
       </c>
       <c r="BA44" s="10">
-        <f t="shared" si="1"/>
-        <v>-7.5315511394367316E-5</v>
+        <f>(AR44-AV44)/(AR44+AV44)</f>
+        <v>-0.15773312286860147</v>
       </c>
       <c r="BB44">
         <v>0.37845674147548453</v>
@@ -8013,8 +9062,8 @@
         <v>3.9786160493061544E-5</v>
       </c>
       <c r="BA45" s="10">
-        <f t="shared" si="1"/>
-        <v>-3.9786160493061544E-5</v>
+        <f t="shared" ref="BA45:BA64" si="2">(AR45-AV45)/(AR45+AV45)</f>
+        <v>0.52098805266948978</v>
       </c>
       <c r="BB45">
         <v>0.51519845935984787</v>
@@ -8176,8 +9225,8 @@
         <v>6.1268977872846997E-4</v>
       </c>
       <c r="BA46" s="10">
-        <f t="shared" si="1"/>
-        <v>-6.1268977872846997E-4</v>
+        <f t="shared" si="2"/>
+        <v>-0.23077991891115016</v>
       </c>
       <c r="BB46">
         <v>0.30271129961714921</v>
@@ -8339,8 +9388,8 @@
         <v>1.4166851715428884E-3</v>
       </c>
       <c r="BA47" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.4166851715428884E-3</v>
+        <f t="shared" si="2"/>
+        <v>-3.248378941566623E-2</v>
       </c>
       <c r="BB47">
         <v>0.48696498265733928</v>
@@ -8502,14 +9551,14 @@
         <v>8.5041566542508294E-3</v>
       </c>
       <c r="BA48" s="10">
-        <f t="shared" si="1"/>
-        <v>-8.5041566542508294E-3</v>
+        <f t="shared" si="2"/>
+        <v>-0.20891288916975601</v>
       </c>
       <c r="BB48">
         <v>0.39659472868451973</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8665,11 +9714,14 @@
         <v>-3.826620618623215E-4</v>
       </c>
       <c r="BA49" s="10">
-        <f t="shared" si="1"/>
-        <v>3.826620618623215E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.5869239117802136</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8825,11 +9877,14 @@
         <v>-1.6652755693193067E-4</v>
       </c>
       <c r="BA50" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6652755693193067E-4</v>
+        <f t="shared" si="2"/>
+        <v>-0.33624927827331952</v>
+      </c>
+      <c r="BB50">
+        <v>0.41749029248198177</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8985,11 +10040,14 @@
         <v>-7.1162584767979729E-3</v>
       </c>
       <c r="BA51" s="10">
-        <f t="shared" si="1"/>
-        <v>7.1162584767979729E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.10832119092089661</v>
+      </c>
+      <c r="BB51">
+        <v>0.55445625615700489</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9145,11 +10203,14 @@
         <v>2.1675733173855523E-2</v>
       </c>
       <c r="BA52" s="10">
-        <f t="shared" si="1"/>
-        <v>-2.1675733173855523E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.29436830914850071</v>
+      </c>
+      <c r="BB52">
+        <v>0.36210409444818531</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9305,11 +10366,14 @@
         <v>1.2263861421400665E-3</v>
       </c>
       <c r="BA53" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.2263861421400665E-3</v>
+        <f t="shared" si="2"/>
+        <v>-7.0897798644619106E-2</v>
+      </c>
+      <c r="BB53">
+        <v>0.40620524965342608</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9465,11 +10529,14 @@
         <v>4.3214937418686039E-3</v>
       </c>
       <c r="BA54" s="10">
-        <f t="shared" si="1"/>
-        <v>-4.3214937418686039E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.56391067209945978</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9625,11 +10692,14 @@
         <v>-4.266640149160783E-3</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" si="1"/>
-        <v>4.266640149160783E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.38055852789114597</v>
+      </c>
+      <c r="BB55">
+        <v>0.57542814248969254</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9785,11 +10855,14 @@
         <v>-3.7009604586540905E-3</v>
       </c>
       <c r="BA56" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7009604586540905E-3</v>
+        <f t="shared" si="2"/>
+        <v>-1.5990402655732703</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9945,11 +11018,14 @@
         <v>1.0792150012376225E-4</v>
       </c>
       <c r="BA57" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.0792150012376225E-4</v>
+        <f t="shared" si="2"/>
+        <v>-0.47395851749828138</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10105,11 +11181,14 @@
         <v>7.1115097091553614E-5</v>
       </c>
       <c r="BA58" s="10">
-        <f t="shared" si="1"/>
-        <v>-7.1115097091553614E-5</v>
+        <f t="shared" si="2"/>
+        <v>-0.12308861431224589</v>
+      </c>
+      <c r="BB58">
+        <v>5.9057493121739371E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10265,11 +11344,14 @@
         <v>3.3184276387288316E-3</v>
       </c>
       <c r="BA59" s="10">
-        <f t="shared" si="1"/>
-        <v>-3.3184276387288316E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.28709928020935371</v>
+      </c>
+      <c r="BB59">
+        <v>0.73085641523701539</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10425,11 +11507,14 @@
         <v>-1.2988425723757281E-3</v>
       </c>
       <c r="BA60" s="10">
-        <f t="shared" si="1"/>
-        <v>1.2988425723757281E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.292873458005594E-2</v>
+      </c>
+      <c r="BB60">
+        <v>0.50471693785766825</v>
       </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10585,11 +11670,14 @@
         <v>0.16642800875024957</v>
       </c>
       <c r="BA61" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.16642800875024957</v>
+        <f t="shared" si="2"/>
+        <v>-1.4397772142535452</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -10744,12 +11832,15 @@
         <f t="shared" si="0"/>
         <v>-6.4559628392388241E-2</v>
       </c>
-      <c r="BA62" s="11">
-        <f t="shared" si="1"/>
-        <v>6.4559628392388241E-2</v>
+      <c r="BA62" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3237063027790679</v>
+      </c>
+      <c r="BB62">
+        <v>0.88247214435392696</v>
       </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10905,11 +11996,14 @@
         <v>4.5277853079818912E-3</v>
       </c>
       <c r="BA63" s="10">
-        <f t="shared" si="1"/>
-        <v>-4.5277853079818912E-3</v>
+        <f t="shared" si="2"/>
+        <v>-0.17690204078532434</v>
+      </c>
+      <c r="BB63">
+        <v>0.40990194202010322</v>
       </c>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11065,11 +12159,15 @@
         <v>3.0915113317374343E-3</v>
       </c>
       <c r="BA64" s="10">
-        <f t="shared" si="1"/>
-        <v>-3.0915113317374343E-3</v>
+        <f t="shared" si="2"/>
+        <v>-0.19819806082500088</v>
+      </c>
+      <c r="BB64">
+        <v>0.4021106147339798</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>